--- a/Documents/Analyse/Analyse_Projektmanagement.xlsx
+++ b/Documents/Analyse/Analyse_Projektmanagement.xlsx
@@ -224,9 +224,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Auwände</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>siehe Projektstrukturplan und Softwareentwicklungsplan</t>
+  </si>
+  <si>
+    <t>Aufwände</t>
   </si>
 </sst>
 </file>
@@ -677,9 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -688,9 +685,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,26 +706,8 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,59 +728,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,9 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -828,39 +756,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -872,6 +800,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,7 +1203,7 @@
   <dimension ref="C3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K20"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,21 +1233,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" ht="60" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1279,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1291,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1303,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -1351,557 +1351,565 @@
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="83"/>
-      <c r="J16" s="12">
+      <c r="I16" s="54"/>
+      <c r="J16" s="11">
         <v>41905</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <v>41912</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <v>41919</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>41926</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="16">
         <v>41933</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>41940</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>41947</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>41954</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="18">
         <v>41961</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="11">
         <v>41968</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="19">
         <v>41975</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="13">
         <v>41982</v>
       </c>
     </row>
     <row r="17" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I17" s="83"/>
-      <c r="J17" s="26" t="s">
+      <c r="I17" s="54"/>
+      <c r="J17" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27" t="s">
+      <c r="K17" s="79"/>
+      <c r="L17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="26" t="s">
+      <c r="M17" s="79"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29" t="s">
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I18" s="83"/>
-      <c r="J18" s="22" t="s">
+      <c r="I18" s="54"/>
+      <c r="J18" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23" t="s">
+      <c r="K18" s="88"/>
+      <c r="L18" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="36" t="s">
+      <c r="M18" s="88"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37" t="s">
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37" t="s">
+      <c r="R18" s="68"/>
+      <c r="S18" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="25" t="s">
+      <c r="T18" s="69"/>
+      <c r="U18" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49" t="s">
+      <c r="K19" s="76"/>
+      <c r="L19" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49" t="s">
+      <c r="M19" s="83"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51" t="s">
+      <c r="P19" s="71"/>
+      <c r="Q19" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51" t="s">
+      <c r="R19" s="71"/>
+      <c r="S19" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="T19" s="48"/>
-      <c r="U19" s="52" t="s">
+      <c r="T19" s="76"/>
+      <c r="U19" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42" t="s">
+      <c r="K20" s="82"/>
+      <c r="L20" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="42" t="s">
+      <c r="M20" s="84"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44" t="s">
+      <c r="P20" s="73"/>
+      <c r="Q20" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="55"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49" t="s">
+      <c r="K21" s="76"/>
+      <c r="L21" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49" t="s">
+      <c r="M21" s="83"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="51" t="s">
+      <c r="P21" s="71"/>
+      <c r="Q21" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51" t="s">
+      <c r="R21" s="71"/>
+      <c r="S21" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="48"/>
-      <c r="U21" s="52" t="s">
+      <c r="T21" s="76"/>
+      <c r="U21" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42" t="s">
+      <c r="K22" s="82"/>
+      <c r="L22" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="42" t="s">
+      <c r="M22" s="84"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="44" t="s">
+      <c r="P22" s="73"/>
+      <c r="Q22" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44" t="s">
+      <c r="R22" s="73"/>
+      <c r="S22" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="T22" s="41"/>
-      <c r="U22" s="45" t="s">
+      <c r="T22" s="82"/>
+      <c r="U22" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I23" s="83"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31" t="s">
+      <c r="I23" s="54"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34" t="s">
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34" t="s">
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="35" t="s">
+      <c r="U23" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="7:22" x14ac:dyDescent="0.25">
       <c r="J24" s="7"/>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="19" t="s">
+      <c r="R24" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
-      <c r="U24" s="19" t="s">
+      <c r="U24" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G26" s="77"/>
-      <c r="H26" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="10" t="s">
+      <c r="G26" s="51"/>
+      <c r="H26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G27" s="48"/>
+      <c r="H27" s="49">
+        <v>41912</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="86"/>
+      <c r="P27" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G27" s="74"/>
-      <c r="H27" s="75">
-        <v>41912</v>
-      </c>
-      <c r="I27" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="U27" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="V27" s="66" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="28" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G28" s="62"/>
-      <c r="H28" s="75">
+      <c r="G28" s="39"/>
+      <c r="H28" s="49">
         <v>41933</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62" t="s">
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="56" t="s">
+      <c r="M28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="87" t="s">
+      <c r="N28" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="88"/>
-      <c r="P28" s="56">
+      <c r="O28" s="64"/>
+      <c r="P28" s="33">
         <v>12</v>
       </c>
-      <c r="Q28" s="56">
+      <c r="Q28" s="33">
         <v>12</v>
       </c>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="46">
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="30">
         <f>SUM(P28:U28)</f>
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G29" s="62"/>
-      <c r="H29" s="75">
+      <c r="G29" s="39"/>
+      <c r="H29" s="49">
         <v>41961</v>
       </c>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62" t="s">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="67" t="s">
+      <c r="M29" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="89" t="s">
+      <c r="N29" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="90"/>
-      <c r="P29" s="67">
+      <c r="O29" s="66"/>
+      <c r="P29" s="43">
         <v>14</v>
       </c>
-      <c r="Q29" s="67">
+      <c r="Q29" s="43">
         <v>12</v>
       </c>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="69">
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="45">
         <f>SUM(P29:U29)</f>
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G30" s="62"/>
-      <c r="H30" s="75">
+      <c r="G30" s="39"/>
+      <c r="H30" s="49">
         <v>41982</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62" t="s">
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="56" t="s">
+      <c r="M30" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="87" t="s">
+      <c r="N30" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="88"/>
-      <c r="P30" s="56">
+      <c r="O30" s="64"/>
+      <c r="P30" s="33">
         <v>10</v>
       </c>
-      <c r="Q30" s="56">
+      <c r="Q30" s="33">
         <v>10</v>
       </c>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="46">
-        <f t="shared" ref="V29:V31" si="0">SUM(P30:U30)</f>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="30">
+        <f t="shared" ref="V30:V31" si="0">SUM(P30:U30)</f>
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="62"/>
-      <c r="H31" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="67" t="s">
+      <c r="G31" s="39"/>
+      <c r="H31" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="89" t="s">
+      <c r="N31" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="90"/>
-      <c r="P31" s="70">
+      <c r="O31" s="66"/>
+      <c r="P31" s="46">
         <v>10</v>
       </c>
-      <c r="Q31" s="70">
+      <c r="Q31" s="46">
         <v>10</v>
       </c>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="69">
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="45">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="7:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="79"/>
-      <c r="H32" s="76">
+      <c r="G32" s="52"/>
+      <c r="H32" s="50">
         <v>41912</v>
       </c>
-      <c r="I32" s="81" t="s">
+      <c r="I32" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="62" t="s">
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" s="59">
+      <c r="O32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" s="36">
         <f>SUM(P28:P31)</f>
         <v>46</v>
       </c>
-      <c r="Q32" s="59">
-        <f t="shared" ref="Q32:V32" si="1">SUM(Q28:Q31)</f>
+      <c r="Q32" s="36">
+        <f t="shared" ref="Q32:U32" si="1">SUM(Q28:Q31)</f>
         <v>44</v>
       </c>
-      <c r="R32" s="59">
+      <c r="R32" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S32" s="59">
+      <c r="S32" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T32" s="59">
+      <c r="T32" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="60">
+      <c r="U32" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V32" s="61">
+      <c r="V32" s="38">
         <f>SUM(V28:V31)</f>
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="7:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="62"/>
-      <c r="H33" s="76">
+      <c r="G33" s="39"/>
+      <c r="H33" s="50">
         <v>41933</v>
       </c>
-      <c r="I33" s="81" t="s">
+      <c r="I33" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="62" t="s">
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="84" t="s">
+      <c r="T33" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="U33" s="57"/>
+      <c r="V33" s="55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="39"/>
+      <c r="H34" s="50">
+        <v>41975</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="T34" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="U33" s="85"/>
-      <c r="V33" s="86">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="62"/>
-      <c r="H34" s="76">
-        <v>41975</v>
-      </c>
-      <c r="I34" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="T34" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="U34" s="73"/>
-      <c r="V34" s="58">
+      <c r="U34" s="59"/>
+      <c r="V34" s="35">
         <f>V33-V32</f>
         <v>310</v>
       </c>
     </row>
     <row r="35" spans="7:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="62"/>
-      <c r="H35" s="11">
+      <c r="G35" s="39"/>
+      <c r="H35" s="10">
         <v>41982</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
       <c r="L35" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="O19:P19"/>
@@ -1915,23 +1923,15 @@
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="S21:T21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Analyse/Analyse_Projektmanagement.xlsx
+++ b/Documents/Analyse/Analyse_Projektmanagement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Phase</t>
   </si>
@@ -166,33 +166,6 @@
   </si>
   <si>
     <t>AEB, EAB</t>
-  </si>
-  <si>
-    <t>EAA, EBA</t>
-  </si>
-  <si>
-    <t>EAC, ECA</t>
-  </si>
-  <si>
-    <t>EAD, EAB</t>
-  </si>
-  <si>
-    <t>AEB, EAB, EAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAB, EDAB, EDAC </t>
-  </si>
-  <si>
-    <t>EBA, ECA, F</t>
-  </si>
-  <si>
-    <t>ECA,EDAA, F</t>
-  </si>
-  <si>
-    <t>AEB, EAC, EDAA, F</t>
-  </si>
-  <si>
-    <t>EAB; EDAB, EDAC, F</t>
   </si>
   <si>
     <t>G</t>
@@ -249,6 +222,36 @@
   </si>
   <si>
     <t>Aufwände</t>
+  </si>
+  <si>
+    <t>EBA, ECA</t>
+  </si>
+  <si>
+    <t>EAB, EBC</t>
+  </si>
+  <si>
+    <t>AEB, EAB, EAD</t>
+  </si>
+  <si>
+    <t>EBA, EAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAB, EBB, EBC </t>
+  </si>
+  <si>
+    <t>EBA, EAC, F</t>
+  </si>
+  <si>
+    <t>AEB, EAD, EBD, F</t>
+  </si>
+  <si>
+    <t>EBB, EBD, EAD, F</t>
+  </si>
+  <si>
+    <t>EAA, EBA, ECA</t>
+  </si>
+  <si>
+    <t>EAC, EAC, F</t>
   </si>
 </sst>
 </file>
@@ -768,6 +771,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,78 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="3:21" ht="60" x14ac:dyDescent="0.25">
@@ -1255,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -1267,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1279,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1291,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1303,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -1391,50 +1394,50 @@
     </row>
     <row r="17" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I17" s="54"/>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="79"/>
-      <c r="L17" s="80" t="s">
+      <c r="K17" s="56"/>
+      <c r="L17" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="79"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="79" t="s">
+      <c r="M17" s="56"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="81"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="58"/>
       <c r="U17" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I18" s="54"/>
-      <c r="J18" s="88" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="87" t="s">
+      <c r="K18" s="67"/>
+      <c r="L18" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="88"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="90" t="s">
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68" t="s">
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68" t="s">
+      <c r="R18" s="69"/>
+      <c r="S18" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="69"/>
+      <c r="T18" s="72"/>
       <c r="U18" s="20" t="s">
         <v>21</v>
       </c>
@@ -1443,112 +1446,112 @@
       <c r="I19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="83" t="s">
+      <c r="J19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="70" t="s">
+      <c r="K19" s="63"/>
+      <c r="L19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="83"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="70" t="s">
+      <c r="M19" s="62"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="71"/>
-      <c r="S19" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="T19" s="76"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="73"/>
+      <c r="S19" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" s="63"/>
       <c r="U19" s="31" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="84" t="s">
+      <c r="J20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="82"/>
-      <c r="L20" s="72" t="s">
+      <c r="K20" s="60"/>
+      <c r="L20" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="84"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="73"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="78"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="74"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="77"/>
       <c r="U20" s="32"/>
     </row>
     <row r="21" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="83" t="s">
+      <c r="J21" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="76"/>
-      <c r="L21" s="70" t="s">
+      <c r="K21" s="63"/>
+      <c r="L21" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="83"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="R21" s="71"/>
-      <c r="S21" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="T21" s="76"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="73"/>
+      <c r="S21" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21" s="63"/>
       <c r="U21" s="31" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="84" t="s">
+      <c r="J22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="82"/>
-      <c r="L22" s="72" t="s">
+      <c r="K22" s="60"/>
+      <c r="L22" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="84"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="72" t="s">
+      <c r="M22" s="65"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="74"/>
+      <c r="S22" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="T22" s="60"/>
+      <c r="U22" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22" s="73"/>
-      <c r="S22" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="T22" s="82"/>
-      <c r="U22" s="29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="7:22" x14ac:dyDescent="0.25">
@@ -1598,18 +1601,18 @@
     </row>
     <row r="26" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G26" s="51"/>
-      <c r="H26" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
+      <c r="H26" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
       <c r="M26" s="9" t="s">
         <v>35</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="7:22" x14ac:dyDescent="0.25">
@@ -1626,12 +1629,12 @@
         <v>22</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="86"/>
+        <v>54</v>
+      </c>
+      <c r="N27" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="79"/>
       <c r="P27" s="40" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>21</v>
       </c>
       <c r="V27" s="42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="7:22" x14ac:dyDescent="0.25">
@@ -1670,10 +1673,10 @@
       <c r="M28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="64"/>
+      <c r="O28" s="88"/>
       <c r="P28" s="33">
         <v>12</v>
       </c>
@@ -1705,10 +1708,10 @@
       <c r="M29" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="65" t="s">
+      <c r="N29" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="66"/>
+      <c r="O29" s="90"/>
       <c r="P29" s="43">
         <v>14</v>
       </c>
@@ -1740,10 +1743,10 @@
       <c r="M30" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="63" t="s">
+      <c r="N30" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="64"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="33">
         <v>10</v>
       </c>
@@ -1761,20 +1764,20 @@
     </row>
     <row r="31" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G31" s="39"/>
-      <c r="H31" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
+      <c r="H31" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
       <c r="M31" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="65" t="s">
+      <c r="N31" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="66"/>
+      <c r="O31" s="90"/>
       <c r="P31" s="46">
         <v>10</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P32" s="36">
         <f>SUM(P28:P31)</f>
@@ -1848,10 +1851,10 @@
       <c r="L33" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="U33" s="57"/>
+      <c r="T33" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="U33" s="81"/>
       <c r="V33" s="55">
         <v>400</v>
       </c>
@@ -1869,10 +1872,10 @@
       <c r="L34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="T34" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="U34" s="59"/>
+      <c r="T34" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" s="83"/>
       <c r="V34" s="35">
         <f>V33-V32</f>
         <v>310</v>
@@ -1883,17 +1886,39 @@
       <c r="H35" s="10">
         <v>41982</v>
       </c>
-      <c r="I35" s="67" t="s">
+      <c r="I35" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
       <c r="L35" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="O17:T17"/>
@@ -1910,28 +1935,6 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
